--- a/src/main/java/lomt/pearson/fileupload/nals_school_global/producttoc/validation_usecase_30/ingestion_validation_tc_30.xlsx
+++ b/src/main/java/lomt/pearson/fileupload/nals_school_global/producttoc/validation_usecase_30/ingestion_validation_tc_30.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4506"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\lomt_automation\src\main\java\lomt\pearson\fileupload\nals_school_global\producttoc\validation_usecase_30\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7020" tabRatio="385"/>
   </bookViews>
@@ -10,8 +15,8 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="125725"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -19,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="40">
   <si>
     <t>Program Title</t>
   </si>
@@ -33,15 +38,9 @@
     <t>Country</t>
   </si>
   <si>
-    <t>India</t>
-  </si>
-  <si>
     <t>State</t>
   </si>
   <si>
-    <t>UP</t>
-  </si>
-  <si>
     <t>Market - Province (INTL)</t>
   </si>
   <si>
@@ -142,13 +141,16 @@
   </si>
   <si>
     <t>course title</t>
+  </si>
+  <si>
+    <t>Arkansas</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -537,21 +539,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13:G14"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="35.140625" customWidth="1"/>
@@ -571,23 +573,23 @@
     <col min="16" max="16" width="16.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="16.5" thickBot="1">
+    <row r="1" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" ht="16.5" thickBot="1">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" ht="16.5" thickBot="1">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -595,126 +597,124 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="16.5" thickBot="1">
+    <row r="4" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="2"/>
+    </row>
+    <row r="5" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:16" ht="16.5" thickBot="1">
-      <c r="A5" s="1" t="s">
+      <c r="B5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B6" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="16.5" thickBot="1">
-      <c r="A6" s="1" t="s">
+    <row r="7" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" ht="16.5" thickBot="1">
-      <c r="A7" s="1" t="s">
-        <v>9</v>
       </c>
       <c r="B7" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="16.5" thickBot="1">
+    <row r="8" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B8" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="16.5" thickBot="1">
+    <row r="9" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B10" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="16.5" thickBot="1">
-      <c r="A10" s="1" t="s">
+    <row r="11" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B11" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="16.5" thickBot="1">
-      <c r="A11" s="1" t="s">
+    <row r="12" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B12" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="12" spans="1:16" ht="16.5" thickBot="1">
-      <c r="A12" s="2" t="s">
+      <c r="C12" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="D12" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="E12" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="F12" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="G12" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="H12" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G12" s="1" t="s">
+      <c r="I12" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="H12" s="1" t="s">
+      <c r="J12" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="I12" s="1" t="s">
+      <c r="K12" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="J12" s="1" t="s">
+      <c r="L12" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="K12" s="1" t="s">
+      <c r="M12" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="O12" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="P12" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="L12" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="M12" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="N12" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="O12" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="P12" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" ht="15.75">
+    </row>
+    <row r="13" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="5"/>
       <c r="D13" s="6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E13" s="3">
         <v>1</v>
@@ -724,31 +724,31 @@
       </c>
       <c r="G13" s="6"/>
       <c r="H13" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I13" s="8"/>
       <c r="J13" s="8" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="K13" s="9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="L13" s="3"/>
       <c r="M13" s="6"/>
       <c r="N13" s="8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="O13" s="8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="P13" s="6"/>
     </row>
-    <row r="14" spans="1:16" ht="15.75">
+    <row r="14" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E14" s="3">
         <v>6</v>
@@ -758,22 +758,22 @@
       </c>
       <c r="G14" s="6"/>
       <c r="H14" s="6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I14" s="6"/>
       <c r="J14" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="K14" s="9" t="s">
         <v>36</v>
-      </c>
-      <c r="K14" s="9" t="s">
-        <v>38</v>
       </c>
       <c r="L14" s="3"/>
       <c r="M14" s="6"/>
       <c r="N14" s="8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="O14" s="8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="P14" s="6"/>
     </row>
